--- a/Data/StormIntervals.xlsx
+++ b/Data/StormIntervals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\samoa\WATERSHED_ANALYSIS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Fagaalu-Sediment-Flux\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="StormIntervals" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="14">
   <si>
     <t>start</t>
   </si>
@@ -868,13 +868,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +1000,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A67" si="0">A3+1</f>
+        <f t="shared" ref="A4:A66" si="0">A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1">
@@ -1595,7 +1595,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="0"/>
+        <f>A19+1</f>
         <v>18</v>
       </c>
       <c r="B20" s="1">
@@ -1779,14 +1779,14 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="0"/>
+        <f>A24+1</f>
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>41052.333333333336</v>
+        <v>41053.833333333336</v>
       </c>
       <c r="C25" s="1">
-        <v>41053.291666666664</v>
+        <v>41055</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1805,9 +1805,6 @@
       <c r="K25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1815,10 +1812,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>41053.833333333336</v>
+        <v>41055</v>
       </c>
       <c r="C26" s="1">
-        <v>41055</v>
+        <v>41056.125</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1844,13 +1841,20 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>41055</v>
+        <v>41062.552083333336</v>
       </c>
       <c r="C27" s="1">
-        <v>41056.125</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+        <v>41062.885416666664</v>
+      </c>
+      <c r="D27">
+        <v>21600000000000</v>
+      </c>
+      <c r="E27" s="1">
+        <v>41063.322916666664</v>
+      </c>
+      <c r="F27" s="1">
+        <v>41068.3125</v>
+      </c>
       <c r="G27" s="1" t="s">
         <v>11</v>
       </c>
@@ -1873,19 +1877,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>41062.552083333336</v>
+        <v>41063.322916666664</v>
       </c>
       <c r="C28" s="1">
-        <v>41062.885416666664</v>
+        <v>41064</v>
       </c>
       <c r="D28">
-        <v>21600000000000</v>
+        <v>431100000000000</v>
       </c>
       <c r="E28" s="1">
-        <v>41063.322916666664</v>
+        <v>41098.083333333336</v>
       </c>
       <c r="F28" s="1">
-        <v>41068.3125</v>
+        <v>41098.34375</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>11</v>
@@ -1909,20 +1913,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>41063.322916666664</v>
+        <v>41064</v>
       </c>
       <c r="C29" s="1">
-        <v>41064</v>
-      </c>
-      <c r="D29">
-        <v>431100000000000</v>
-      </c>
-      <c r="E29" s="1">
-        <v>41098.083333333336</v>
-      </c>
-      <c r="F29" s="1">
-        <v>41098.34375</v>
-      </c>
+        <v>41064.625</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
         <v>11</v>
       </c>
@@ -1945,10 +1942,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>41064</v>
+        <v>41064.625</v>
       </c>
       <c r="C30" s="1">
-        <v>41064.625</v>
+        <v>41065.291666666664</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1974,10 +1971,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>41064.625</v>
+        <v>41065.291666666664</v>
       </c>
       <c r="C31" s="1">
-        <v>41065.291666666664</v>
+        <v>41065.833333333336</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2003,13 +2000,20 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>41065.291666666664</v>
+        <v>41098.041666666664</v>
       </c>
       <c r="C32" s="1">
-        <v>41065.833333333336</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+        <v>41098.34375</v>
+      </c>
+      <c r="D32">
+        <v>22500000000000</v>
+      </c>
+      <c r="E32" s="1">
+        <v>41098.447916666664</v>
+      </c>
+      <c r="F32" s="1">
+        <v>41098.520833333336</v>
+      </c>
       <c r="G32" s="1" t="s">
         <v>11</v>
       </c>
@@ -2020,9 +2024,6 @@
         <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2032,19 +2033,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>41098.041666666664</v>
+        <v>41098.416666666664</v>
       </c>
       <c r="C33" s="1">
-        <v>41098.34375</v>
+        <v>41098.520833333336</v>
       </c>
       <c r="D33">
-        <v>22500000000000</v>
+        <v>6300000000000</v>
       </c>
       <c r="E33" s="1">
-        <v>41098.447916666664</v>
+        <v>41103.072916666664</v>
       </c>
       <c r="F33" s="1">
-        <v>41098.520833333336</v>
+        <v>41103.25</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>11</v>
@@ -2065,23 +2066,21 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>41098.416666666664</v>
+        <v>41103.072916666664</v>
       </c>
       <c r="C34" s="1">
-        <v>41098.520833333336</v>
+        <v>41103.25</v>
       </c>
       <c r="D34">
-        <v>6300000000000</v>
+        <v>15300000000000</v>
       </c>
       <c r="E34" s="1">
-        <v>41103.072916666664</v>
+        <v>41117.083333333336</v>
       </c>
       <c r="F34" s="1">
-        <v>41103.25</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>41117.28125</v>
+      </c>
+      <c r="G34" s="1"/>
       <c r="H34" t="s">
         <v>11</v>
       </c>
@@ -2098,21 +2097,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>41103.072916666664</v>
+        <v>41117</v>
       </c>
       <c r="C35" s="1">
-        <v>41103.25</v>
+        <v>41117.28125</v>
       </c>
       <c r="D35">
-        <v>15300000000000</v>
+        <v>17100000000000</v>
       </c>
       <c r="E35" s="1">
-        <v>41117.083333333336</v>
+        <v>41117.791666666664</v>
       </c>
       <c r="F35" s="1">
-        <v>41117.28125</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>41118.114583333336</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H35" t="s">
         <v>11</v>
       </c>
@@ -2129,19 +2130,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>41117</v>
+        <v>41117.75</v>
       </c>
       <c r="C36" s="1">
-        <v>41117.28125</v>
+        <v>41118.114583333336</v>
       </c>
       <c r="D36">
-        <v>17100000000000</v>
+        <v>27900000000000</v>
       </c>
       <c r="E36" s="1">
-        <v>41117.791666666664</v>
+        <v>41130.145833333336</v>
       </c>
       <c r="F36" s="1">
-        <v>41118.114583333336</v>
+        <v>41130.59375</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>11</v>
@@ -2162,23 +2163,21 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>41117.75</v>
+        <v>41130.145833333336</v>
       </c>
       <c r="C37" s="1">
-        <v>41118.114583333336</v>
+        <v>41130.59375</v>
       </c>
       <c r="D37">
-        <v>27900000000000</v>
+        <v>38700000000000</v>
       </c>
       <c r="E37" s="1">
-        <v>41130.145833333336</v>
+        <v>41338.8125</v>
       </c>
       <c r="F37" s="1">
-        <v>41130.59375</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>41338.96875</v>
+      </c>
+      <c r="G37" s="1"/>
       <c r="H37" t="s">
         <v>11</v>
       </c>
@@ -2195,25 +2194,17 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>41130.145833333336</v>
+        <v>41316.875</v>
       </c>
       <c r="C38" s="1">
-        <v>41130.59375</v>
-      </c>
-      <c r="D38">
-        <v>38700000000000</v>
-      </c>
-      <c r="E38" s="1">
-        <v>41338.8125</v>
-      </c>
-      <c r="F38" s="1">
-        <v>41338.96875</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>41317.541666666664</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H38" t="s">
-        <v>11</v>
-      </c>
-      <c r="I38" t="s">
         <v>11</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -2226,17 +2217,27 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>41316.875</v>
+        <v>41338.75</v>
       </c>
       <c r="C39" s="1">
-        <v>41317.541666666664</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+        <v>41338.96875</v>
+      </c>
+      <c r="D39">
+        <v>13500000000000</v>
+      </c>
+      <c r="E39" s="1">
+        <v>41339.427083333336</v>
+      </c>
+      <c r="F39" s="1">
+        <v>41339.8125</v>
+      </c>
       <c r="G39" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
         <v>11</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -2249,19 +2250,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>41338.75</v>
+        <v>41339.333333333336</v>
       </c>
       <c r="C40" s="1">
-        <v>41338.96875</v>
+        <v>41339.8125</v>
       </c>
       <c r="D40">
-        <v>13500000000000</v>
+        <v>33300000000000</v>
       </c>
       <c r="E40" s="1">
-        <v>41339.427083333336</v>
+        <v>41340.59375</v>
       </c>
       <c r="F40" s="1">
-        <v>41339.8125</v>
+        <v>41341.520833333336</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>11</v>
@@ -2282,23 +2283,21 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>41339.333333333336</v>
+        <v>41340.59375</v>
       </c>
       <c r="C41" s="1">
-        <v>41339.8125</v>
+        <v>41341.520833333336</v>
       </c>
       <c r="D41">
-        <v>33300000000000</v>
+        <v>80100000000000</v>
       </c>
       <c r="E41" s="1">
-        <v>41340.59375</v>
+        <v>41344.09375</v>
       </c>
       <c r="F41" s="1">
-        <v>41341.520833333336</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>41344.572916666664</v>
+      </c>
+      <c r="G41" s="1"/>
       <c r="H41" t="s">
         <v>11</v>
       </c>
@@ -2315,19 +2314,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>41340.59375</v>
+        <v>41344.09375</v>
       </c>
       <c r="C42" s="1">
-        <v>41341.520833333336</v>
+        <v>41344.572916666664</v>
       </c>
       <c r="D42">
-        <v>80100000000000</v>
+        <v>41400000000000</v>
       </c>
       <c r="E42" s="1">
-        <v>41344.09375</v>
+        <v>41354.552083333336</v>
       </c>
       <c r="F42" s="1">
-        <v>41344.572916666664</v>
+        <v>41354.635416666664</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" t="s">
@@ -2339,6 +2338,12 @@
       <c r="J42" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="K42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -2346,21 +2351,23 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>41344.09375</v>
+        <v>41354.552083333336</v>
       </c>
       <c r="C43" s="1">
-        <v>41344.572916666664</v>
+        <v>41354.677083333336</v>
       </c>
       <c r="D43">
-        <v>41400000000000</v>
+        <v>7200000000000</v>
       </c>
       <c r="E43" s="1">
-        <v>41354.552083333336</v>
+        <v>41380.53125</v>
       </c>
       <c r="F43" s="1">
-        <v>41354.635416666664</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>41380.78125</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H43" t="s">
         <v>11</v>
       </c>
@@ -2383,20 +2390,13 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>41354.552083333336</v>
+        <v>41356.458333333336</v>
       </c>
       <c r="C44" s="1">
-        <v>41354.677083333336</v>
-      </c>
-      <c r="D44">
-        <v>7200000000000</v>
-      </c>
-      <c r="E44" s="1">
-        <v>41380.53125</v>
-      </c>
-      <c r="F44" s="1">
-        <v>41380.78125</v>
-      </c>
+        <v>41356.583333333336</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
         <v>11</v>
       </c>
@@ -2422,13 +2422,20 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>41356.458333333336</v>
+        <v>41380.375</v>
       </c>
       <c r="C45" s="1">
-        <v>41356.583333333336</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+        <v>41380.78125</v>
+      </c>
+      <c r="D45">
+        <v>21600000000000</v>
+      </c>
+      <c r="E45" s="1">
+        <v>41381.0625</v>
+      </c>
+      <c r="F45" s="1">
+        <v>41381.489583333336</v>
+      </c>
       <c r="G45" s="1" t="s">
         <v>11</v>
       </c>
@@ -2440,12 +2447,6 @@
       </c>
       <c r="J45" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L45" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -2454,19 +2455,19 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>41380.375</v>
+        <v>41381</v>
       </c>
       <c r="C46" s="1">
-        <v>41380.78125</v>
+        <v>41381.489583333336</v>
       </c>
       <c r="D46">
-        <v>21600000000000</v>
+        <v>36900000000000</v>
       </c>
       <c r="E46" s="1">
-        <v>41381.0625</v>
+        <v>41384.208333333336</v>
       </c>
       <c r="F46" s="1">
-        <v>41381.489583333336</v>
+        <v>41384.375</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>11</v>
@@ -2487,19 +2488,19 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>41381</v>
+        <v>41384.166666666664</v>
       </c>
       <c r="C47" s="1">
-        <v>41381.489583333336</v>
+        <v>41384.375</v>
       </c>
       <c r="D47">
-        <v>36900000000000</v>
+        <v>14400000000000</v>
       </c>
       <c r="E47" s="1">
-        <v>41384.208333333336</v>
+        <v>41387.572916666664</v>
       </c>
       <c r="F47" s="1">
-        <v>41384.375</v>
+        <v>41388.510416666664</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>11</v>
@@ -2520,19 +2521,19 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>41384.166666666664</v>
+        <v>41387.5</v>
       </c>
       <c r="C48" s="1">
-        <v>41384.375</v>
+        <v>41388.510416666664</v>
       </c>
       <c r="D48">
-        <v>14400000000000</v>
+        <v>81000000000000</v>
       </c>
       <c r="E48" s="1">
-        <v>41387.572916666664</v>
+        <v>41392.427083333336</v>
       </c>
       <c r="F48" s="1">
-        <v>41388.510416666664</v>
+        <v>41392.71875</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>11</v>
@@ -2553,25 +2554,23 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>41387.5</v>
+        <v>41392.427083333336</v>
       </c>
       <c r="C49" s="1">
-        <v>41388.510416666664</v>
+        <v>41392.71875</v>
       </c>
       <c r="D49">
-        <v>81000000000000</v>
+        <v>25200000000000</v>
       </c>
       <c r="E49" s="1">
-        <v>41392.427083333336</v>
+        <v>41392.833333333336</v>
       </c>
       <c r="F49" s="1">
-        <v>41392.71875</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>41393.333333333336</v>
+      </c>
+      <c r="G49" s="1"/>
       <c r="H49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I49" t="s">
         <v>11</v>
@@ -2586,19 +2585,19 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>41392.427083333336</v>
+        <v>41392.833333333336</v>
       </c>
       <c r="C50" s="1">
-        <v>41392.71875</v>
+        <v>41393.333333333336</v>
       </c>
       <c r="D50">
-        <v>25200000000000</v>
+        <v>43200000000000</v>
       </c>
       <c r="E50" s="1">
-        <v>41392.833333333336</v>
+        <v>41394.625</v>
       </c>
       <c r="F50" s="1">
-        <v>41393.333333333336</v>
+        <v>41395.552083333336</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" t="s">
@@ -2617,23 +2616,25 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>41392.833333333336</v>
+        <v>41394.583333333336</v>
       </c>
       <c r="C51" s="1">
-        <v>41393.333333333336</v>
+        <v>41394.895833333336</v>
       </c>
       <c r="D51">
-        <v>43200000000000</v>
+        <v>80100000000000</v>
       </c>
       <c r="E51" s="1">
-        <v>41394.625</v>
+        <v>41430.270833333336</v>
       </c>
       <c r="F51" s="1">
-        <v>41395.552083333336</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>41431.09375</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I51" t="s">
         <v>11</v>
@@ -2648,20 +2649,13 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>41394.583333333336</v>
+        <v>41394.895833333336</v>
       </c>
       <c r="C52" s="1">
-        <v>41394.895833333336</v>
-      </c>
-      <c r="D52">
-        <v>80100000000000</v>
-      </c>
-      <c r="E52" s="1">
-        <v>41430.270833333336</v>
-      </c>
-      <c r="F52" s="1">
-        <v>41431.09375</v>
-      </c>
+        <v>41395.552083333336</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
         <v>11</v>
       </c>
@@ -2681,13 +2675,20 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>41394.895833333336</v>
+        <v>41430.104166666664</v>
       </c>
       <c r="C53" s="1">
-        <v>41395.552083333336</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+        <v>41431.09375</v>
+      </c>
+      <c r="D53">
+        <v>71100000000000</v>
+      </c>
+      <c r="E53" s="1">
+        <v>41441.145833333336</v>
+      </c>
+      <c r="F53" s="1">
+        <v>41441.479166666664</v>
+      </c>
       <c r="G53" s="1" t="s">
         <v>11</v>
       </c>
@@ -2707,23 +2708,21 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>41430.104166666664</v>
+        <v>41441.145833333336</v>
       </c>
       <c r="C54" s="1">
-        <v>41431.09375</v>
+        <v>41441.479166666664</v>
       </c>
       <c r="D54">
-        <v>71100000000000</v>
+        <v>28800000000000</v>
       </c>
       <c r="E54" s="1">
-        <v>41441.145833333336</v>
+        <v>41472.96875</v>
       </c>
       <c r="F54" s="1">
-        <v>41441.479166666664</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>41473.302083333336</v>
+      </c>
+      <c r="G54" s="1"/>
       <c r="H54" t="s">
         <v>11</v>
       </c>
@@ -2731,6 +2730,9 @@
         <v>11</v>
       </c>
       <c r="J54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2740,19 +2742,19 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>41441.145833333336</v>
+        <v>41472.96875</v>
       </c>
       <c r="C55" s="1">
-        <v>41441.479166666664</v>
+        <v>41473.302083333336</v>
       </c>
       <c r="D55">
         <v>28800000000000</v>
       </c>
       <c r="E55" s="1">
-        <v>41472.96875</v>
+        <v>41474.78125</v>
       </c>
       <c r="F55" s="1">
-        <v>41473.302083333336</v>
+        <v>41474.9375</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" t="s">
@@ -2774,19 +2776,19 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>41472.96875</v>
+        <v>41474.78125</v>
       </c>
       <c r="C56" s="1">
-        <v>41473.302083333336</v>
+        <v>41474.9375</v>
       </c>
       <c r="D56">
-        <v>28800000000000</v>
+        <v>13500000000000</v>
       </c>
       <c r="E56" s="1">
-        <v>41474.78125</v>
+        <v>41475.15625</v>
       </c>
       <c r="F56" s="1">
-        <v>41474.9375</v>
+        <v>41475.479166666664</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" t="s">
@@ -2808,19 +2810,19 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>41474.78125</v>
+        <v>41475.15625</v>
       </c>
       <c r="C57" s="1">
-        <v>41474.9375</v>
+        <v>41475.479166666664</v>
       </c>
       <c r="D57">
-        <v>13500000000000</v>
+        <v>27900000000000</v>
       </c>
       <c r="E57" s="1">
-        <v>41475.15625</v>
+        <v>41491.979166666664</v>
       </c>
       <c r="F57" s="1">
-        <v>41475.479166666664</v>
+        <v>41492.270833333336</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" t="s">
@@ -2842,21 +2844,23 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>41475.15625</v>
+        <v>41491.875</v>
       </c>
       <c r="C58" s="1">
-        <v>41475.479166666664</v>
+        <v>41492.270833333336</v>
       </c>
       <c r="D58">
-        <v>27900000000000</v>
+        <v>25200000000000</v>
       </c>
       <c r="E58" s="1">
-        <v>41491.979166666664</v>
+        <v>41496.1875</v>
       </c>
       <c r="F58" s="1">
-        <v>41492.270833333336</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>41496.708333333336</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H58" t="s">
         <v>11</v>
       </c>
@@ -2876,19 +2880,19 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>41491.875</v>
+        <v>41496</v>
       </c>
       <c r="C59" s="1">
-        <v>41492.270833333336</v>
+        <v>41496.708333333336</v>
       </c>
       <c r="D59">
-        <v>25200000000000</v>
+        <v>45000000000000</v>
       </c>
       <c r="E59" s="1">
-        <v>41496.1875</v>
+        <v>41501.802083333336</v>
       </c>
       <c r="F59" s="1">
-        <v>41496.708333333336</v>
+        <v>41501.895833333336</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>11</v>
@@ -2912,19 +2916,19 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>41496</v>
+        <v>41501.802083333336</v>
       </c>
       <c r="C60" s="1">
-        <v>41496.708333333336</v>
+        <v>41502.5</v>
       </c>
       <c r="D60">
-        <v>45000000000000</v>
+        <v>8100000000000</v>
       </c>
       <c r="E60" s="1">
-        <v>41501.802083333336</v>
+        <v>41502.34375</v>
       </c>
       <c r="F60" s="1">
-        <v>41501.895833333336</v>
+        <v>41502.927083333336</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>11</v>
@@ -2948,19 +2952,19 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>41501.802083333336</v>
+        <v>41502.34375</v>
       </c>
       <c r="C61" s="1">
-        <v>41502.5</v>
+        <v>41502.927083333336</v>
       </c>
       <c r="D61">
-        <v>8100000000000</v>
+        <v>50400000000000</v>
       </c>
       <c r="E61" s="1">
-        <v>41502.34375</v>
+        <v>41502.9375</v>
       </c>
       <c r="F61" s="1">
-        <v>41502.927083333336</v>
+        <v>41503.15625</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>11</v>
@@ -2984,23 +2988,21 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>41502.34375</v>
+        <v>41502.9375</v>
       </c>
       <c r="C62" s="1">
-        <v>41502.927083333336</v>
+        <v>41503.15625</v>
       </c>
       <c r="D62">
-        <v>50400000000000</v>
+        <v>18900000000000</v>
       </c>
       <c r="E62" s="1">
-        <v>41502.9375</v>
+        <v>41503.4375</v>
       </c>
       <c r="F62" s="1">
-        <v>41503.15625</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>41503.96875</v>
+      </c>
+      <c r="G62" s="1"/>
       <c r="H62" t="s">
         <v>11</v>
       </c>
@@ -3020,19 +3022,19 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>41502.9375</v>
+        <v>41503.4375</v>
       </c>
       <c r="C63" s="1">
-        <v>41503.15625</v>
+        <v>41504.28125</v>
       </c>
       <c r="D63">
-        <v>18900000000000</v>
+        <v>45900000000000</v>
       </c>
       <c r="E63" s="1">
-        <v>41503.4375</v>
+        <v>41503.96875</v>
       </c>
       <c r="F63" s="1">
-        <v>41503.96875</v>
+        <v>41504.28125</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" t="s">
@@ -3054,19 +3056,19 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>41503.4375</v>
+        <v>41505.291666666664</v>
       </c>
       <c r="C64" s="1">
-        <v>41504.28125</v>
+        <v>41505.541666666664</v>
       </c>
       <c r="D64">
-        <v>45900000000000</v>
+        <v>11700000000000</v>
       </c>
       <c r="E64" s="1">
-        <v>41503.96875</v>
+        <v>41505.427083333336</v>
       </c>
       <c r="F64" s="1">
-        <v>41504.28125</v>
+        <v>41505.541666666664</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" t="s">
@@ -3088,21 +3090,23 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>41505.291666666664</v>
+        <v>41505.5625</v>
       </c>
       <c r="C65" s="1">
-        <v>41505.541666666664</v>
+        <v>41505.75</v>
       </c>
       <c r="D65">
-        <v>11700000000000</v>
+        <v>10800000000000</v>
       </c>
       <c r="E65" s="1">
-        <v>41505.427083333336</v>
+        <v>41518.364583333336</v>
       </c>
       <c r="F65" s="1">
-        <v>41505.541666666664</v>
-      </c>
-      <c r="G65" s="1"/>
+        <v>41518.5625</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H65" t="s">
         <v>11</v>
       </c>
@@ -3122,19 +3126,19 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>41505.5625</v>
+        <v>41518.166666666664</v>
       </c>
       <c r="C66" s="1">
-        <v>41505.75</v>
+        <v>41518.666666666664</v>
       </c>
       <c r="D66">
-        <v>10800000000000</v>
+        <v>17100000000000</v>
       </c>
       <c r="E66" s="1">
-        <v>41518.364583333336</v>
+        <v>41557.604166666664</v>
       </c>
       <c r="F66" s="1">
-        <v>41518.5625</v>
+        <v>41558</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>11</v>
@@ -3154,59 +3158,51 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A67:A89" si="1">A66+1</f>
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>41518.166666666664</v>
+        <v>41557.604166666664</v>
       </c>
       <c r="C67" s="1">
-        <v>41518.666666666664</v>
+        <v>41558</v>
       </c>
       <c r="D67">
-        <v>17100000000000</v>
+        <v>34200000000000</v>
       </c>
       <c r="E67" s="1">
-        <v>41557.604166666664</v>
+        <v>41562.583333333336</v>
       </c>
       <c r="F67" s="1">
-        <v>41558</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>41562.75</v>
+      </c>
+      <c r="G67" s="1"/>
       <c r="H67" t="s">
         <v>11</v>
       </c>
       <c r="I67" t="s">
-        <v>11</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A90" si="1">A67+1</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>41557.604166666664</v>
+        <v>41562.583333333336</v>
       </c>
       <c r="C68" s="1">
-        <v>41558</v>
+        <v>41562.75</v>
       </c>
       <c r="D68">
-        <v>34200000000000</v>
+        <v>14400000000000</v>
       </c>
       <c r="E68" s="1">
-        <v>41562.583333333336</v>
+        <v>41578.25</v>
       </c>
       <c r="F68" s="1">
-        <v>41562.75</v>
+        <v>41578.46875</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" t="s">
@@ -3222,21 +3218,23 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>41562.583333333336</v>
+        <v>41578.25</v>
       </c>
       <c r="C69" s="1">
-        <v>41562.75</v>
+        <v>41578.520833333336</v>
       </c>
       <c r="D69">
-        <v>14400000000000</v>
+        <v>18900000000000</v>
       </c>
       <c r="E69" s="1">
-        <v>41578.25</v>
+        <v>41591.53125</v>
       </c>
       <c r="F69" s="1">
-        <v>41578.46875</v>
-      </c>
-      <c r="G69" s="1"/>
+        <v>41591.760416666664</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H69" t="s">
         <v>11</v>
       </c>
@@ -3250,23 +3248,21 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>41578.25</v>
+        <v>41591.53125</v>
       </c>
       <c r="C70" s="1">
-        <v>41578.520833333336</v>
+        <v>41591.760416666664</v>
       </c>
       <c r="D70">
-        <v>18900000000000</v>
+        <v>19800000000000</v>
       </c>
       <c r="E70" s="1">
-        <v>41591.53125</v>
+        <v>41602.677083333336</v>
       </c>
       <c r="F70" s="1">
-        <v>41591.760416666664</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>41602.9375</v>
+      </c>
+      <c r="G70" s="1"/>
       <c r="H70" t="s">
         <v>11</v>
       </c>
@@ -3280,19 +3276,19 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>41591.53125</v>
+        <v>41602.677083333336</v>
       </c>
       <c r="C71" s="1">
-        <v>41591.760416666664</v>
+        <v>41602.9375</v>
       </c>
       <c r="D71">
-        <v>19800000000000</v>
+        <v>22500000000000</v>
       </c>
       <c r="E71" s="1">
-        <v>41602.677083333336</v>
+        <v>41617.239583333336</v>
       </c>
       <c r="F71" s="1">
-        <v>41602.9375</v>
+        <v>41617.572916666664</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" t="s">
@@ -3308,19 +3304,19 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>41602.677083333336</v>
+        <v>41617.239583333336</v>
       </c>
       <c r="C72" s="1">
-        <v>41602.9375</v>
+        <v>41617.572916666664</v>
       </c>
       <c r="D72">
-        <v>22500000000000</v>
+        <v>28800000000000</v>
       </c>
       <c r="E72" s="1">
-        <v>41617.239583333336</v>
+        <v>41619.0625</v>
       </c>
       <c r="F72" s="1">
-        <v>41617.572916666664</v>
+        <v>41619.166666666664</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" t="s">
@@ -3336,19 +3332,19 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>41617.239583333336</v>
+        <v>41619.0625</v>
       </c>
       <c r="C73" s="1">
-        <v>41617.572916666664</v>
+        <v>41619.46875</v>
       </c>
       <c r="D73">
-        <v>28800000000000</v>
+        <v>9000000000000</v>
       </c>
       <c r="E73" s="1">
-        <v>41619.0625</v>
+        <v>41619.166666666664</v>
       </c>
       <c r="F73" s="1">
-        <v>41619.166666666664</v>
+        <v>41619.46875</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" t="s">
@@ -3364,21 +3360,23 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>41619.0625</v>
+        <v>41640</v>
       </c>
       <c r="C74" s="1">
-        <v>41619.46875</v>
+        <v>41640.604166666664</v>
       </c>
       <c r="D74">
-        <v>9000000000000</v>
+        <v>46800000000000</v>
       </c>
       <c r="E74" s="1">
-        <v>41619.166666666664</v>
+        <v>41641.46875</v>
       </c>
       <c r="F74" s="1">
-        <v>41619.46875</v>
-      </c>
-      <c r="G74" s="1"/>
+        <v>41641.90625</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H74" t="s">
         <v>11</v>
       </c>
@@ -3392,19 +3390,19 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>41640</v>
+        <v>41641.375</v>
       </c>
       <c r="C75" s="1">
-        <v>41640.604166666664</v>
+        <v>41641.90625</v>
       </c>
       <c r="D75">
-        <v>46800000000000</v>
+        <v>37800000000000</v>
       </c>
       <c r="E75" s="1">
-        <v>41641.46875</v>
+        <v>41642.770833333336</v>
       </c>
       <c r="F75" s="1">
-        <v>41641.90625</v>
+        <v>41643.072916666664</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>11</v>
@@ -3422,23 +3420,21 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>41641.375</v>
+        <v>41642.770833333336</v>
       </c>
       <c r="C76" s="1">
-        <v>41641.90625</v>
+        <v>41643.072916666664</v>
       </c>
       <c r="D76">
-        <v>37800000000000</v>
+        <v>26100000000000</v>
       </c>
       <c r="E76" s="1">
-        <v>41642.770833333336</v>
+        <v>41643.947916666664</v>
       </c>
       <c r="F76" s="1">
-        <v>41643.072916666664</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>41644.083333333336</v>
+      </c>
+      <c r="G76" s="1"/>
       <c r="H76" t="s">
         <v>11</v>
       </c>
@@ -3452,21 +3448,23 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>41642.770833333336</v>
+        <v>41643.90625</v>
       </c>
       <c r="C77" s="1">
-        <v>41643.072916666664</v>
+        <v>41644.083333333336</v>
       </c>
       <c r="D77">
-        <v>26100000000000</v>
+        <v>11700000000000</v>
       </c>
       <c r="E77" s="1">
-        <v>41643.947916666664</v>
+        <v>41645.427083333336</v>
       </c>
       <c r="F77" s="1">
-        <v>41644.083333333336</v>
-      </c>
-      <c r="G77" s="1"/>
+        <v>41645.53125</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H77" t="s">
         <v>11</v>
       </c>
@@ -3480,19 +3478,19 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>41643.90625</v>
+        <v>41645.416666666664</v>
       </c>
       <c r="C78" s="1">
-        <v>41644.083333333336</v>
+        <v>41645.53125</v>
       </c>
       <c r="D78">
-        <v>11700000000000</v>
+        <v>9000000000000</v>
       </c>
       <c r="E78" s="1">
-        <v>41645.427083333336</v>
+        <v>41646.760416666664</v>
       </c>
       <c r="F78" s="1">
-        <v>41645.53125</v>
+        <v>41646.947916666664</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>11</v>
@@ -3510,24 +3508,21 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>41645.416666666664</v>
+        <v>41646.760416666664</v>
       </c>
       <c r="C79" s="1">
-        <v>41645.53125</v>
+        <v>41646.947916666664</v>
       </c>
       <c r="D79">
-        <v>9000000000000</v>
+        <v>16200000000000</v>
       </c>
       <c r="E79" s="1">
-        <v>41646.760416666664</v>
+        <v>41647.75</v>
       </c>
       <c r="F79" s="1">
-        <v>41646.947916666664</v>
+        <v>41648.5625</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H79" t="s">
         <v>11</v>
       </c>
       <c r="I79" t="s">
@@ -3540,23 +3535,21 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>41646.760416666664</v>
+        <v>41647.75</v>
       </c>
       <c r="C80" s="1">
-        <v>41646.947916666664</v>
+        <v>41648.5625</v>
       </c>
       <c r="D80">
-        <v>16200000000000</v>
+        <v>70200000000000</v>
       </c>
       <c r="E80" s="1">
-        <v>41647.75</v>
+        <v>41648.739583333336</v>
       </c>
       <c r="F80" s="1">
-        <v>41648.5625</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>41648.8125</v>
+      </c>
+      <c r="G80" s="1"/>
       <c r="I80" t="s">
         <v>11</v>
       </c>
@@ -3567,19 +3560,19 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>41647.75</v>
+        <v>41648.739583333336</v>
       </c>
       <c r="C81" s="1">
-        <v>41648.5625</v>
+        <v>41648.8125</v>
       </c>
       <c r="D81">
-        <v>70200000000000</v>
+        <v>6300000000000</v>
       </c>
       <c r="E81" s="1">
-        <v>41648.739583333336</v>
+        <v>41664</v>
       </c>
       <c r="F81" s="1">
-        <v>41648.8125</v>
+        <v>41664.15625</v>
       </c>
       <c r="G81" s="1"/>
       <c r="I81" t="s">
@@ -3592,21 +3585,24 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>41648.739583333336</v>
+        <v>41664</v>
       </c>
       <c r="C82" s="1">
-        <v>41648.8125</v>
+        <v>41664.15625</v>
       </c>
       <c r="D82">
-        <v>6300000000000</v>
+        <v>13500000000000</v>
       </c>
       <c r="E82" s="1">
-        <v>41664</v>
+        <v>41665.40625</v>
       </c>
       <c r="F82" s="1">
-        <v>41664.15625</v>
+        <v>41665.5625</v>
       </c>
       <c r="G82" s="1"/>
+      <c r="H82" t="s">
+        <v>11</v>
+      </c>
       <c r="I82" t="s">
         <v>11</v>
       </c>
@@ -3617,21 +3613,23 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>41664</v>
+        <v>41665.385416666664</v>
       </c>
       <c r="C83" s="1">
-        <v>41664.15625</v>
+        <v>41665.5625</v>
       </c>
       <c r="D83">
         <v>13500000000000</v>
       </c>
       <c r="E83" s="1">
-        <v>41665.40625</v>
+        <v>41684.614583333336</v>
       </c>
       <c r="F83" s="1">
-        <v>41665.5625</v>
-      </c>
-      <c r="G83" s="1"/>
+        <v>41684.822916666664</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H83" t="s">
         <v>11</v>
       </c>
@@ -3645,27 +3643,31 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>41665.385416666664</v>
+        <v>41684.614583333336</v>
       </c>
       <c r="C84" s="1">
-        <v>41665.5625</v>
+        <v>41684.822916666664</v>
       </c>
       <c r="D84">
-        <v>13500000000000</v>
+        <v>18000000000000</v>
       </c>
       <c r="E84" s="1">
-        <v>41684.614583333336</v>
+        <v>41690.5</v>
       </c>
       <c r="F84" s="1">
-        <v>41684.822916666664</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>41690.583333333336</v>
+      </c>
+      <c r="G84" s="1"/>
       <c r="H84" t="s">
         <v>11</v>
       </c>
       <c r="I84" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3675,21 +3677,23 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>41684.614583333336</v>
+        <v>41690.4375</v>
       </c>
       <c r="C85" s="1">
-        <v>41684.822916666664</v>
+        <v>41690.583333333336</v>
       </c>
       <c r="D85">
-        <v>18000000000000</v>
+        <v>7200000000000</v>
       </c>
       <c r="E85" s="1">
-        <v>41690.5</v>
+        <v>41691.520833333336</v>
       </c>
       <c r="F85" s="1">
-        <v>41690.583333333336</v>
-      </c>
-      <c r="G85" s="1"/>
+        <v>41692.104166666664</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H85" t="s">
         <v>11</v>
       </c>
@@ -3709,19 +3713,19 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>41690.4375</v>
+        <v>41691.4375</v>
       </c>
       <c r="C86" s="1">
-        <v>41690.583333333336</v>
+        <v>41692.104166666664</v>
       </c>
       <c r="D86">
-        <v>7200000000000</v>
+        <v>50400000000000</v>
       </c>
       <c r="E86" s="1">
-        <v>41691.520833333336</v>
+        <v>41695.895833333336</v>
       </c>
       <c r="F86" s="1">
-        <v>41692.104166666664</v>
+        <v>41696.625</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>11</v>
@@ -3745,19 +3749,19 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>41691.4375</v>
+        <v>41695.895833333336</v>
       </c>
       <c r="C87" s="1">
-        <v>41692.104166666664</v>
+        <v>41696.625</v>
       </c>
       <c r="D87">
-        <v>50400000000000</v>
+        <v>63000000000000</v>
       </c>
       <c r="E87" s="1">
-        <v>41695.895833333336</v>
+        <v>41697.0625</v>
       </c>
       <c r="F87" s="1">
-        <v>41696.625</v>
+        <v>41697.604166666664</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>11</v>
@@ -3781,19 +3785,19 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>41695.895833333336</v>
+        <v>41697.0625</v>
       </c>
       <c r="C88" s="1">
-        <v>41696.625</v>
+        <v>41697.604166666664</v>
       </c>
       <c r="D88">
-        <v>63000000000000</v>
+        <v>46800000000000</v>
       </c>
       <c r="E88" s="1">
-        <v>41697.0625</v>
+        <v>41697.666666666664</v>
       </c>
       <c r="F88" s="1">
-        <v>41697.604166666664</v>
+        <v>41698.010416666664</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>11</v>
@@ -3817,19 +3821,13 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>41697.0625</v>
+        <v>41697.666666666664</v>
       </c>
       <c r="C89" s="1">
-        <v>41697.604166666664</v>
+        <v>41698.010416666664</v>
       </c>
       <c r="D89">
-        <v>46800000000000</v>
-      </c>
-      <c r="E89" s="1">
-        <v>41697.666666666664</v>
-      </c>
-      <c r="F89" s="1">
-        <v>41698.010416666664</v>
+        <v>29700000000000</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>11</v>
@@ -3844,36 +3842,6 @@
         <v>11</v>
       </c>
       <c r="L89" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="B90" s="1">
-        <v>41697.666666666664</v>
-      </c>
-      <c r="C90" s="1">
-        <v>41698.010416666664</v>
-      </c>
-      <c r="D90">
-        <v>29700000000000</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H90" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" t="s">
-        <v>11</v>
-      </c>
-      <c r="J90" t="s">
-        <v>11</v>
-      </c>
-      <c r="L90" t="s">
         <v>11</v>
       </c>
     </row>
